--- a/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
+++ b/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1526CD4A-D1B6-4988-82BB-24DAF287F350}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -140,12 +139,24 @@
   </si>
   <si>
     <t>CPU 800</t>
+  </si>
+  <si>
+    <t>AlarmLoadingDetail</t>
+  </si>
+  <si>
+    <t>StandbyLoadingDetail</t>
+  </si>
+  <si>
+    <t>Battery Alarm (A)</t>
+  </si>
+  <si>
+    <t>Battery Standby (A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,6 +285,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -281,9 +295,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,12 +599,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -603,10 +614,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="9"/>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
@@ -650,14 +661,14 @@
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -696,9 +707,15 @@
       <c r="M7" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="N7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="6" t="s">
@@ -733,6 +750,12 @@
       </c>
       <c r="M8" s="10">
         <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -750,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
+++ b/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46F9F6-833E-4912-A273-1843525E7915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Color Codes</t>
   </si>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,11 +575,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,7 +589,8 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
     <col min="4" max="5" width="16.77734375" customWidth="1"/>
     <col min="6" max="6" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.77734375" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
     <col min="9" max="9" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="25.21875" customWidth="1"/>
     <col min="14" max="14" width="25" customWidth="1"/>
@@ -606,8 +608,12 @@
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
       <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -619,8 +625,12 @@
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
@@ -773,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
+++ b/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA46F9F6-833E-4912-A273-1843525E7915}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -148,16 +147,16 @@
     <t>StandbyLoadingDetail</t>
   </si>
   <si>
-    <t>Battery Alarm (A)</t>
-  </si>
-  <si>
-    <t>Battery Standby (A)</t>
+    <t>Alarm Current(A)</t>
+  </si>
+  <si>
+    <t>Standby Current(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -575,11 +574,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G2"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -783,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
+++ b/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,9 +135,6 @@
     <t>NGC-1928</t>
   </si>
   <si>
-    <t>FIRECLASS 240-2</t>
-  </si>
-  <si>
     <t>CPU 800</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Standby Current(A)</t>
+  </si>
+  <si>
+    <t>FIRECLASS 64-2</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,10 +608,10 @@
       <c r="D1" s="18"/>
       <c r="E1" s="12"/>
       <c r="F1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -625,10 +625,10 @@
       <c r="D2" s="19"/>
       <c r="E2" s="13"/>
       <c r="F2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
@@ -717,21 +717,21 @@
         <v>26</v>
       </c>
       <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
@@ -743,7 +743,7 @@
         <v>0.25</v>
       </c>
       <c r="G8" s="15">
-        <v>0.438</v>
+        <v>0.441</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>30</v>
@@ -761,10 +761,10 @@
         <v>5.1999999999999998E-2</v>
       </c>
       <c r="N8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>

--- a/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
+++ b/Test Data/TC_71696_Verify_Battery_Standby_On_Addition_Deletion_Of_Accessories_FC.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF82E513-B85C-47EE-9996-867449675674}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Panels" sheetId="6" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>Color Codes</t>
   </si>
@@ -123,21 +118,9 @@
     <t>Accessories</t>
   </si>
   <si>
-    <t>PRN800</t>
-  </si>
-  <si>
     <t>Printers</t>
   </si>
   <si>
-    <t>Printer 2</t>
-  </si>
-  <si>
-    <t>NGC-1928</t>
-  </si>
-  <si>
-    <t>CPU 800</t>
-  </si>
-  <si>
     <t>AlarmLoadingDetail</t>
   </si>
   <si>
@@ -150,13 +133,28 @@
     <t>Standby Current(A)</t>
   </si>
   <si>
-    <t>FIRECLASS 64-2</t>
+    <t>FC64-2</t>
+  </si>
+  <si>
+    <t>NGC-1928/T961 OR TC-71696</t>
+  </si>
+  <si>
+    <t>Generic Printer</t>
+  </si>
+  <si>
+    <t>Printer 1</t>
+  </si>
+  <si>
+    <t>0.000</t>
+  </si>
+  <si>
+    <t>verifyBatteryStandbyAndAlarmLoadOnAdditionAndDeletionOfAccessories</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,10 +606,10 @@
       <c r="D1" s="18"/>
       <c r="E1" s="12"/>
       <c r="F1" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
@@ -625,17 +623,19 @@
       <c r="D2" s="19"/>
       <c r="E2" s="13"/>
       <c r="F2" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="8" t="s">
         <v>4</v>
@@ -649,7 +649,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="8" t="s">
@@ -717,21 +717,21 @@
         <v>26</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>13</v>
@@ -740,31 +740,31 @@
         <v>14</v>
       </c>
       <c r="F8" s="15">
-        <v>0.25</v>
+        <v>0.223</v>
       </c>
       <c r="G8" s="15">
-        <v>0.441</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="K8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L8" s="10">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="M8" s="10">
-        <v>5.1999999999999998E-2</v>
+        <v>38</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>39</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="16"/>
       <c r="R8" s="16"/>
@@ -782,7 +782,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
